--- a/public/format/Format Alumni.xlsx
+++ b/public/format/Format Alumni.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 6\PKL\Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 6\PKL\Web\smam1sby\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0045D6E9-66C8-4F9C-AA30-0F9EA58F16EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF7CEEF-6F84-472F-8A55-37EC202FC281}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{BB8A6EB5-3D5B-4587-8C9B-F46A2EF02D49}"/>
   </bookViews>
@@ -25,39 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>nama_alumni</t>
-  </si>
-  <si>
-    <t>univ_alumni</t>
-  </si>
-  <si>
-    <t>jurusan_alumni</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>angkatan</t>
   </si>
   <si>
-    <t>atribut tambahan</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>nama alumni</t>
-  </si>
-  <si>
-    <t>universitas alumni</t>
-  </si>
-  <si>
-    <t>jurusan alumni</t>
-  </si>
-  <si>
-    <t>angkatan alumni</t>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>universitas</t>
+  </si>
+  <si>
+    <t>jurusan</t>
+  </si>
+  <si>
+    <t>contoh</t>
+  </si>
+  <si>
+    <t>contoh universitas</t>
+  </si>
+  <si>
+    <t>contoh jurusan</t>
   </si>
 </sst>
 </file>
@@ -409,72 +397,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EE720F-62F9-4A87-AB46-5A9F99B84AA2}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="D2">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/public/format/Format Alumni.xlsx
+++ b/public/format/Format Alumni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 6\PKL\Web\smam1sby\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF7CEEF-6F84-472F-8A55-37EC202FC281}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4DB0DF-BE33-484E-BD70-56C2E132DFC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{BB8A6EB5-3D5B-4587-8C9B-F46A2EF02D49}"/>
   </bookViews>
